--- a/raw data/substrate_surfaceareas.xlsx
+++ b/raw data/substrate_surfaceareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thell\Documents\Duke University\Research\HBEF\FieldExperiments\Summer2019\HB_chla_summer2019\data\tidy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thell\Documents\Duke University\Research\_HBEF\chla\hbef_chla\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5833B963-DB48-4576-9C86-8E2E1BF7D989}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6432D6AE-6A2A-4970-B553-1932FEC78361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2688" windowWidth="16416" windowHeight="9420" xr2:uid="{9D70326E-081A-4744-968B-CA6CF966C504}"/>
+    <workbookView xWindow="864" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{9D70326E-081A-4744-968B-CA6CF966C504}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -466,13 +468,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57" bestFit="1" customWidth="1"/>
@@ -577,8 +579,8 @@
         <v>1.8940000000000002E-2</v>
       </c>
       <c r="C6">
-        <f>0.0011584+(4*B6*0.024)</f>
-        <v>2.97664E-3</v>
+        <f>0.0011584+(4*B6*0.0254)</f>
+        <v>3.0827040000000003E-3</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>

--- a/raw data/substrate_surfaceareas.xlsx
+++ b/raw data/substrate_surfaceareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thell\Documents\Duke University\Research\_HBEF\chla\hbef_chla\raw data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/athellma_ad_unc_edu/Documents/Documents/Duke University/Research/_HBEF/chla/hbef_chla/raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6432D6AE-6A2A-4970-B553-1932FEC78361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{6432D6AE-6A2A-4970-B553-1932FEC78361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43CAD360-E11D-4F64-9ED7-98CD678E210E}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{9D70326E-081A-4744-968B-CA6CF966C504}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9D70326E-081A-4744-968B-CA6CF966C504}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>subs_code</t>
   </si>
@@ -98,9 +98,6 @@
     <t>two sided surface area calculated by heather + 4*sides surface area</t>
   </si>
   <si>
-    <t xml:space="preserve">could be calculated with 0.95 in diameter, but used 2cm radius </t>
-  </si>
-  <si>
     <t xml:space="preserve">two sided surface area + sides </t>
   </si>
   <si>
@@ -114,6 +111,12 @@
   </si>
   <si>
     <t>extra_rad.height.side_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be calculated with 0.95 in diameter, but used 2cm diameter </t>
+  </si>
+  <si>
+    <t>could be calculated with 0.95 in diameter, but used 2cm diameter</t>
   </si>
 </sst>
 </file>
@@ -468,24 +471,24 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -494,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -510,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -529,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -548,10 +551,10 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -570,7 +573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -589,7 +592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -605,10 +608,10 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -624,15 +627,15 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <f>0.0011584+(4*(B5+B7)*(AVERAGE(0.234,0.24)))</f>
@@ -642,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
